--- a/public/uploads/jfsj.xlsx
+++ b/public/uploads/jfsj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <r>
       <rPr>
@@ -344,19 +344,22 @@
   <si>
     <t>其它</t>
   </si>
+  <si>
+    <t>130695108</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.########"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +394,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,7 +402,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +436,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,14 +502,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,29 +517,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,55 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,7 +550,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,7 +583,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,55 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,30 +739,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -713,61 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,37 +876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +896,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,189 +932,194 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,7 +1540,7 @@
   <dimension ref="A1:EV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -2489,7 +2479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:152">
+    <row r="6" ht="13.5" spans="1:152">
       <c r="A6" s="12" t="s">
         <v>84</v>
       </c>
@@ -2951,7 +2941,9 @@
       <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="18">
         <v>0</v>
       </c>
